--- a/biology/Botanique/Vivaldi_(pomme_de_terre)/Vivaldi_(pomme_de_terre).xlsx
+++ b/biology/Botanique/Vivaldi_(pomme_de_terre)/Vivaldi_(pomme_de_terre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La 'Vivaldi'  est une variété cultivée de pomme de terre de consommation créée en 1998 par les sociétés néerlandaises De ZPC et G. Van Der Zee, par croisement des variétés « TS 77-148 » et « Monalisa »[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La 'Vivaldi'  est une variété cultivée de pomme de terre de consommation créée en 1998 par les sociétés néerlandaises De ZPC et G. Van Der Zee, par croisement des variétés « TS 77-148 » et « Monalisa ».
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,11 +551,13 @@
           <t>Caractéristiques générales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante au port semi-dressé, aux feuilles à quatre ou cinq paires de folioles primaires et aux fleurs blanches, qui ne produit généralement pas de baies.
 Les tubercules ovales, de grande taille, aux yeux superficiels, ont une peau lisse de couleur jaune. La chair est jaune pâle.
-C'est une variété précoce à mi-précoce, à rendement élevé, très résistante aux virus A et Y, ainsi qu'à la galle verruqueuse, mais moyennement sensible au mildiou (sur feuillage, mais plus résistante sur tubercules) ainsi qu'à la gale commune et à la gale poudreuse[2].
+C'est une variété précoce à mi-précoce, à rendement élevé, très résistante aux virus A et Y, ainsi qu'à la galle verruqueuse, mais moyennement sensible au mildiou (sur feuillage, mais plus résistante sur tubercules) ainsi qu'à la gale commune et à la gale poudreuse.
 </t>
         </is>
       </c>
@@ -570,7 +586,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette pomme de terre à faible teneur en matière sèche et à chair ferme, a une bonne tenue à la cuisson et se prête à tous types de préparations.
 </t>
